--- a/geoffrey uwu/Copy of Competitive Round 1.xlsx
+++ b/geoffrey uwu/Copy of Competitive Round 1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="132">
   <si>
     <t>Question</t>
   </si>
@@ -414,9 +414,6 @@
     <t>Rushil S</t>
   </si>
   <si>
-    <t>Naveen</t>
-  </si>
-  <si>
     <t>Anant</t>
   </si>
   <si>
@@ -2876,15 +2873,13 @@
       <c r="P1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
